--- a/Runfolder/TestDataWestband.xlsx
+++ b/Runfolder/TestDataWestband.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>Userid</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Need to provide data</t>
+  </si>
+  <si>
+    <t>844-752-0166</t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -224,6 +227,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -631,7 +637,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +645,8 @@
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -655,7 +662,7 @@
       <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -681,8 +688,8 @@
       <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3">
-        <v>8447520166</v>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>3</v>
@@ -705,8 +712,8 @@
       <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3">
-        <v>8447520166</v>
+      <c r="D3" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>3</v>
@@ -729,8 +736,8 @@
       <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="3">
-        <v>8447520166</v>
+      <c r="D4" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>3</v>
@@ -753,8 +760,8 @@
         <v>22</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3">
-        <v>8447520166</v>
+      <c r="D5" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
@@ -779,7 +786,7 @@
       <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
@@ -797,7 +804,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
@@ -815,7 +822,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -825,7 +832,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -835,7 +842,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -845,7 +852,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -855,7 +862,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -865,7 +872,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -875,7 +882,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -885,7 +892,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -895,7 +902,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -905,7 +912,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
